--- a/Data compilation Biostat.xlsx
+++ b/Data compilation Biostat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niwa-my.sharepoint.com/personal/antonia_cristi_niwa_co_nz/Documents/Writing/Biostat - BGQ - MB/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niwa-my.sharepoint.com/personal/antonia_cristi_niwa_co_nz/Documents/Writing/Biostat - BGQ - MB/Revisions/Documents to upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{A9D2CB34-D5F6-4536-9CF2-4744312E6BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C88BC87-92C5-4F05-9A46-D68864168233}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC144EC6-31D4-4ABE-A22A-63A9B0E987D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1894BA63-B578-4D9F-9CA1-9B969C6F5FAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1894BA63-B578-4D9F-9CA1-9B969C6F5FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="bSi" sheetId="1" r:id="rId1"/>
@@ -158,12 +158,6 @@
     <t xml:space="preserve">Replicate </t>
   </si>
   <si>
-    <t>Chla&gt;0.2</t>
-  </si>
-  <si>
-    <t>Chla&gt;20</t>
-  </si>
-  <si>
     <t xml:space="preserve">ug/L </t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">DMS and DMSPt </t>
+  </si>
+  <si>
+    <t>Chla&gt;0.2 (ug/L)</t>
+  </si>
+  <si>
+    <t>Chla&gt;20 (ug/L)</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E28325-D8D4-4AB4-B02C-D1AE170FE1F3}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1004,7 +1004,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1339,7 +1339,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>17</v>
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,10 +2474,10 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2594,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614491A-8CCA-4AC8-8C96-00D86E7D56B8}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2609,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
